--- a/natmiOut/OldD7/LR-pairs_lrc2p/Fgf16-Fgfr4.xlsx
+++ b/natmiOut/OldD7/LR-pairs_lrc2p/Fgf16-Fgfr4.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,6 +76,12 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>ECs</t>
+  </si>
+  <si>
+    <t>FAPs</t>
+  </si>
+  <si>
     <t>sCs</t>
   </si>
   <si>
@@ -83,6 +89,9 @@
   </si>
   <si>
     <t>Fgfr4</t>
+  </si>
+  <si>
+    <t>M2</t>
   </si>
 </sst>
 </file>
@@ -440,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T2"/>
+  <dimension ref="A1:T13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -513,10 +522,10 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
@@ -525,49 +534,731 @@
         <v>1</v>
       </c>
       <c r="F2">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G2">
+        <v>0.06043066666666667</v>
+      </c>
+      <c r="H2">
+        <v>0.181292</v>
+      </c>
+      <c r="I2">
+        <v>0.03914407793923354</v>
+      </c>
+      <c r="J2">
+        <v>0.03914407793923354</v>
+      </c>
+      <c r="K2">
+        <v>2</v>
+      </c>
+      <c r="L2">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M2">
+        <v>0.4279076666666666</v>
+      </c>
+      <c r="N2">
+        <v>1.283723</v>
+      </c>
+      <c r="O2">
+        <v>0.0198304262462706</v>
+      </c>
+      <c r="P2">
+        <v>0.0198304262462706</v>
+      </c>
+      <c r="Q2">
+        <v>0.02585874556844444</v>
+      </c>
+      <c r="R2">
+        <v>0.232728710116</v>
+      </c>
+      <c r="S2">
+        <v>0.0007762437505522389</v>
+      </c>
+      <c r="T2">
+        <v>0.0007762437505522389</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20">
+      <c r="A3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D3" t="s">
+        <v>21</v>
+      </c>
+      <c r="E3">
         <v>1</v>
       </c>
-      <c r="G2">
-        <v>0.706659950830507</v>
-      </c>
-      <c r="H2">
-        <v>0.706659950830507</v>
-      </c>
-      <c r="I2">
+      <c r="F3">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G3">
+        <v>0.06043066666666667</v>
+      </c>
+      <c r="H3">
+        <v>0.181292</v>
+      </c>
+      <c r="I3">
+        <v>0.03914407793923354</v>
+      </c>
+      <c r="J3">
+        <v>0.03914407793923354</v>
+      </c>
+      <c r="K3">
+        <v>2</v>
+      </c>
+      <c r="L3">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M3">
+        <v>0.296848</v>
+      </c>
+      <c r="N3">
+        <v>0.890544</v>
+      </c>
+      <c r="O3">
+        <v>0.01375675835913107</v>
+      </c>
+      <c r="P3">
+        <v>0.01375675835913107</v>
+      </c>
+      <c r="Q3">
+        <v>0.01793872253866667</v>
+      </c>
+      <c r="R3">
+        <v>0.161448502848</v>
+      </c>
+      <c r="S3">
+        <v>0.0005384956214010289</v>
+      </c>
+      <c r="T3">
+        <v>0.0005384956214010289</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20">
+      <c r="A4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D4" t="s">
+        <v>25</v>
+      </c>
+      <c r="E4">
         <v>1</v>
       </c>
-      <c r="J2">
+      <c r="F4">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G4">
+        <v>0.06043066666666667</v>
+      </c>
+      <c r="H4">
+        <v>0.181292</v>
+      </c>
+      <c r="I4">
+        <v>0.03914407793923354</v>
+      </c>
+      <c r="J4">
+        <v>0.03914407793923354</v>
+      </c>
+      <c r="K4">
+        <v>2</v>
+      </c>
+      <c r="L4">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M4">
+        <v>0.07261233333333333</v>
+      </c>
+      <c r="N4">
+        <v>0.217837</v>
+      </c>
+      <c r="O4">
+        <v>0.003365056606611278</v>
+      </c>
+      <c r="P4">
+        <v>0.003365056606611278</v>
+      </c>
+      <c r="Q4">
+        <v>0.004388011711555556</v>
+      </c>
+      <c r="R4">
+        <v>0.039492105404</v>
+      </c>
+      <c r="S4">
+        <v>0.0001317220380791246</v>
+      </c>
+      <c r="T4">
+        <v>0.0001317220380791246</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20">
+      <c r="A5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D5" t="s">
+        <v>22</v>
+      </c>
+      <c r="E5">
         <v>1</v>
       </c>
-      <c r="K2">
+      <c r="F5">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G5">
+        <v>0.06043066666666667</v>
+      </c>
+      <c r="H5">
+        <v>0.181292</v>
+      </c>
+      <c r="I5">
+        <v>0.03914407793923354</v>
+      </c>
+      <c r="J5">
+        <v>0.03914407793923354</v>
+      </c>
+      <c r="K5">
+        <v>3</v>
+      </c>
+      <c r="L5">
         <v>1</v>
       </c>
-      <c r="L2">
+      <c r="M5">
+        <v>20.78097133333333</v>
+      </c>
+      <c r="N5">
+        <v>62.342914</v>
+      </c>
+      <c r="O5">
+        <v>0.9630477587879871</v>
+      </c>
+      <c r="P5">
+        <v>0.9630477587879871</v>
+      </c>
+      <c r="Q5">
+        <v>1.255807951654222</v>
+      </c>
+      <c r="R5">
+        <v>11.302271564888</v>
+      </c>
+      <c r="S5">
+        <v>0.03769761652920114</v>
+      </c>
+      <c r="T5">
+        <v>0.03769761652920114</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
+      <c r="A6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6" t="s">
+        <v>24</v>
+      </c>
+      <c r="D6" t="s">
+        <v>20</v>
+      </c>
+      <c r="E6">
+        <v>2</v>
+      </c>
+      <c r="F6">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G6">
+        <v>0.7297526666666666</v>
+      </c>
+      <c r="H6">
+        <v>2.189258</v>
+      </c>
+      <c r="I6">
+        <v>0.4726986617230243</v>
+      </c>
+      <c r="J6">
+        <v>0.4726986617230243</v>
+      </c>
+      <c r="K6">
+        <v>2</v>
+      </c>
+      <c r="L6">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M6">
+        <v>0.4279076666666666</v>
+      </c>
+      <c r="N6">
+        <v>1.283723</v>
+      </c>
+      <c r="O6">
+        <v>0.0198304262462706</v>
+      </c>
+      <c r="P6">
+        <v>0.0198304262462706</v>
+      </c>
+      <c r="Q6">
+        <v>0.3122667608371111</v>
+      </c>
+      <c r="R6">
+        <v>2.810400847533999</v>
+      </c>
+      <c r="S6">
+        <v>0.009373815948009252</v>
+      </c>
+      <c r="T6">
+        <v>0.00937381594800925</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
+      <c r="A7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" t="s">
+        <v>24</v>
+      </c>
+      <c r="D7" t="s">
+        <v>21</v>
+      </c>
+      <c r="E7">
+        <v>2</v>
+      </c>
+      <c r="F7">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G7">
+        <v>0.7297526666666666</v>
+      </c>
+      <c r="H7">
+        <v>2.189258</v>
+      </c>
+      <c r="I7">
+        <v>0.4726986617230243</v>
+      </c>
+      <c r="J7">
+        <v>0.4726986617230243</v>
+      </c>
+      <c r="K7">
+        <v>2</v>
+      </c>
+      <c r="L7">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M7">
+        <v>0.296848</v>
+      </c>
+      <c r="N7">
+        <v>0.890544</v>
+      </c>
+      <c r="O7">
+        <v>0.01375675835913107</v>
+      </c>
+      <c r="P7">
+        <v>0.01375675835913107</v>
+      </c>
+      <c r="Q7">
+        <v>0.2166256195946666</v>
+      </c>
+      <c r="R7">
+        <v>1.949630576352</v>
+      </c>
+      <c r="S7">
+        <v>0.006502801266008283</v>
+      </c>
+      <c r="T7">
+        <v>0.006502801266008282</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" t="s">
+        <v>24</v>
+      </c>
+      <c r="D8" t="s">
+        <v>25</v>
+      </c>
+      <c r="E8">
+        <v>2</v>
+      </c>
+      <c r="F8">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G8">
+        <v>0.7297526666666666</v>
+      </c>
+      <c r="H8">
+        <v>2.189258</v>
+      </c>
+      <c r="I8">
+        <v>0.4726986617230243</v>
+      </c>
+      <c r="J8">
+        <v>0.4726986617230243</v>
+      </c>
+      <c r="K8">
+        <v>2</v>
+      </c>
+      <c r="L8">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M8">
+        <v>0.07261233333333333</v>
+      </c>
+      <c r="N8">
+        <v>0.217837</v>
+      </c>
+      <c r="O8">
+        <v>0.003365056606611278</v>
+      </c>
+      <c r="P8">
+        <v>0.003365056606611278</v>
+      </c>
+      <c r="Q8">
+        <v>0.05298904388288889</v>
+      </c>
+      <c r="R8">
+        <v>0.4769013949459999</v>
+      </c>
+      <c r="S8">
+        <v>0.001590657754567373</v>
+      </c>
+      <c r="T8">
+        <v>0.001590657754567372</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9" t="s">
+        <v>22</v>
+      </c>
+      <c r="E9">
+        <v>2</v>
+      </c>
+      <c r="F9">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G9">
+        <v>0.7297526666666666</v>
+      </c>
+      <c r="H9">
+        <v>2.189258</v>
+      </c>
+      <c r="I9">
+        <v>0.4726986617230243</v>
+      </c>
+      <c r="J9">
+        <v>0.4726986617230243</v>
+      </c>
+      <c r="K9">
+        <v>3</v>
+      </c>
+      <c r="L9">
         <v>1</v>
       </c>
-      <c r="M2">
-        <v>19.7195353511937</v>
-      </c>
-      <c r="N2">
-        <v>19.7195353511937</v>
-      </c>
-      <c r="O2">
+      <c r="M9">
+        <v>20.78097133333333</v>
+      </c>
+      <c r="N9">
+        <v>62.342914</v>
+      </c>
+      <c r="O9">
+        <v>0.9630477587879871</v>
+      </c>
+      <c r="P9">
+        <v>0.9630477587879871</v>
+      </c>
+      <c r="Q9">
+        <v>15.16496924642355</v>
+      </c>
+      <c r="R9">
+        <v>136.484723217812</v>
+      </c>
+      <c r="S9">
+        <v>0.4552313867544394</v>
+      </c>
+      <c r="T9">
+        <v>0.4552313867544394</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10" t="s">
+        <v>20</v>
+      </c>
+      <c r="E10">
+        <v>3</v>
+      </c>
+      <c r="F10">
         <v>1</v>
       </c>
-      <c r="P2">
+      <c r="G10">
+        <v>0.7536176666666666</v>
+      </c>
+      <c r="H10">
+        <v>2.260853</v>
+      </c>
+      <c r="I10">
+        <v>0.4881572603377422</v>
+      </c>
+      <c r="J10">
+        <v>0.4881572603377422</v>
+      </c>
+      <c r="K10">
+        <v>2</v>
+      </c>
+      <c r="L10">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M10">
+        <v>0.4279076666666666</v>
+      </c>
+      <c r="N10">
+        <v>1.283723</v>
+      </c>
+      <c r="O10">
+        <v>0.0198304262462706</v>
+      </c>
+      <c r="P10">
+        <v>0.0198304262462706</v>
+      </c>
+      <c r="Q10">
+        <v>0.3224787773021111</v>
+      </c>
+      <c r="R10">
+        <v>2.902308995719</v>
+      </c>
+      <c r="S10">
+        <v>0.009680366547709115</v>
+      </c>
+      <c r="T10">
+        <v>0.009680366547709115</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11" t="s">
+        <v>23</v>
+      </c>
+      <c r="C11" t="s">
+        <v>24</v>
+      </c>
+      <c r="D11" t="s">
+        <v>21</v>
+      </c>
+      <c r="E11">
+        <v>3</v>
+      </c>
+      <c r="F11">
         <v>1</v>
       </c>
-      <c r="Q2">
-        <v>13.93500588167498</v>
-      </c>
-      <c r="R2">
-        <v>13.93500588167498</v>
-      </c>
-      <c r="S2">
+      <c r="G11">
+        <v>0.7536176666666666</v>
+      </c>
+      <c r="H11">
+        <v>2.260853</v>
+      </c>
+      <c r="I11">
+        <v>0.4881572603377422</v>
+      </c>
+      <c r="J11">
+        <v>0.4881572603377422</v>
+      </c>
+      <c r="K11">
+        <v>2</v>
+      </c>
+      <c r="L11">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M11">
+        <v>0.296848</v>
+      </c>
+      <c r="N11">
+        <v>0.890544</v>
+      </c>
+      <c r="O11">
+        <v>0.01375675835913107</v>
+      </c>
+      <c r="P11">
+        <v>0.01375675835913107</v>
+      </c>
+      <c r="Q11">
+        <v>0.2237098971146667</v>
+      </c>
+      <c r="R11">
+        <v>2.013389074032</v>
+      </c>
+      <c r="S11">
+        <v>0.006715461471721755</v>
+      </c>
+      <c r="T11">
+        <v>0.006715461471721755</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" t="s">
+        <v>23</v>
+      </c>
+      <c r="C12" t="s">
+        <v>24</v>
+      </c>
+      <c r="D12" t="s">
+        <v>25</v>
+      </c>
+      <c r="E12">
+        <v>3</v>
+      </c>
+      <c r="F12">
         <v>1</v>
       </c>
-      <c r="T2">
+      <c r="G12">
+        <v>0.7536176666666666</v>
+      </c>
+      <c r="H12">
+        <v>2.260853</v>
+      </c>
+      <c r="I12">
+        <v>0.4881572603377422</v>
+      </c>
+      <c r="J12">
+        <v>0.4881572603377422</v>
+      </c>
+      <c r="K12">
+        <v>2</v>
+      </c>
+      <c r="L12">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M12">
+        <v>0.07261233333333333</v>
+      </c>
+      <c r="N12">
+        <v>0.217837</v>
+      </c>
+      <c r="O12">
+        <v>0.003365056606611278</v>
+      </c>
+      <c r="P12">
+        <v>0.003365056606611278</v>
+      </c>
+      <c r="Q12">
+        <v>0.05472193721788889</v>
+      </c>
+      <c r="R12">
+        <v>0.492497434961</v>
+      </c>
+      <c r="S12">
+        <v>0.001642676813964781</v>
+      </c>
+      <c r="T12">
+        <v>0.001642676813964781</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
+        <v>23</v>
+      </c>
+      <c r="C13" t="s">
+        <v>24</v>
+      </c>
+      <c r="D13" t="s">
+        <v>22</v>
+      </c>
+      <c r="E13">
+        <v>3</v>
+      </c>
+      <c r="F13">
         <v>1</v>
+      </c>
+      <c r="G13">
+        <v>0.7536176666666666</v>
+      </c>
+      <c r="H13">
+        <v>2.260853</v>
+      </c>
+      <c r="I13">
+        <v>0.4881572603377422</v>
+      </c>
+      <c r="J13">
+        <v>0.4881572603377422</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>20.78097133333333</v>
+      </c>
+      <c r="N13">
+        <v>62.342914</v>
+      </c>
+      <c r="O13">
+        <v>0.9630477587879871</v>
+      </c>
+      <c r="P13">
+        <v>0.9630477587879871</v>
+      </c>
+      <c r="Q13">
+        <v>15.66090712729356</v>
+      </c>
+      <c r="R13">
+        <v>140.948164145642</v>
+      </c>
+      <c r="S13">
+        <v>0.4701187555043466</v>
+      </c>
+      <c r="T13">
+        <v>0.4701187555043466</v>
       </c>
     </row>
   </sheetData>
